--- a/web/eastmoney_search_美克家居.xlsx
+++ b/web/eastmoney_search_美克家居.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="351">
   <si>
     <t>证券</t>
   </si>
@@ -43,1201 +43,1039 @@
     <t>链接</t>
   </si>
   <si>
-    <t>【新金路】</t>
-  </si>
-  <si>
     <t>【美克家居】</t>
   </si>
   <si>
-    <t>【美灵宝】</t>
-  </si>
-  <si>
     <t>【财经评论】</t>
   </si>
   <si>
-    <t>【中视传媒】</t>
-  </si>
-  <si>
-    <t>【万邦达】</t>
-  </si>
-  <si>
-    <t>【建发股份】</t>
+    <t>【居然之家】</t>
+  </si>
+  <si>
+    <t>【海思科】</t>
+  </si>
+  <si>
+    <t>【索菲亚】</t>
+  </si>
+  <si>
+    <t>【舍得酒业】</t>
+  </si>
+  <si>
+    <t>【中科云网】</t>
+  </si>
+  <si>
+    <t>【ST网力】</t>
+  </si>
+  <si>
+    <t>【协鑫集成】</t>
+  </si>
+  <si>
+    <t>【凯乐科技】</t>
+  </si>
+  <si>
+    <t>【红星美凯龙】</t>
   </si>
   <si>
     <t>【上证指数】</t>
   </si>
   <si>
-    <t>【阳光诺和】</t>
-  </si>
-  <si>
-    <t>【长源电力】</t>
-  </si>
-  <si>
-    <t>【双良节能】</t>
-  </si>
-  <si>
-    <t>【智光电气】</t>
-  </si>
-  <si>
-    <t>【三星新材】</t>
-  </si>
-  <si>
-    <t>【泰晶科技】</t>
-  </si>
-  <si>
-    <t>【浙江永强】</t>
-  </si>
-  <si>
-    <t>【锦泓集团】</t>
-  </si>
-  <si>
-    <t>【珠江股份】</t>
-  </si>
-  <si>
-    <t>新金路分析6：10倍大牛股的成长日记</t>
-  </si>
-  <si>
-    <t>原标题：美克家居回应举报：网上文章内容纯属主观臆造，从未参与过股票操纵</t>
-  </si>
-  <si>
-    <t>美克家居：从未参与过股票操纵 从未向任何机构和个人提供内幕信息</t>
-  </si>
-  <si>
-    <t>【财联社】美克家居回应举报：网上文章内容纯属主观臆造，从未参与过股票操纵</t>
-  </si>
-  <si>
-    <t>美克家居5月31日盘中跌幅达5%</t>
-  </si>
-  <si>
-    <t>人民币升值，哪些行业将受益？</t>
-  </si>
-  <si>
-    <t>美克为什么不发声</t>
-  </si>
-  <si>
-    <t>为啥举报？</t>
-  </si>
-  <si>
-    <t>举报属实吗？</t>
-  </si>
-  <si>
-    <t>人民币升值 哪些行业将受益？</t>
-  </si>
-  <si>
-    <t>大家不要见风就是雨，到时候亏的就是自己。就算是美克家居，没有证监会调查就不影响</t>
-  </si>
-  <si>
-    <t>同情美克家居股民[捂脸]</t>
-  </si>
-  <si>
-    <t>【叶飞事件引发余震持续，“美克家居”操纵团伙自爆“案中案”，社保基金“又爆行贿门</t>
-  </si>
-  <si>
-    <t>美克家居本周融资净买入1789.41万元，居木业家具板块第三</t>
-  </si>
-  <si>
-    <t>美克家居本周沪股通持股市值增加493.14万元，居木业家具板块第六</t>
-  </si>
-  <si>
-    <t>不是有人说美克家居庄家自爆案中案吗？没看到新闻啊？家居股票真有这么差吗？</t>
-  </si>
-  <si>
-    <t>跟着美克家居大跌暴跌</t>
-  </si>
-  <si>
-    <t>社保114参与了许亚非在美克家居坐庄，看来别说公募基金了，社保也不能相信了。</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-28)</t>
-  </si>
-  <si>
-    <t>美克家居：连续3日融资净买入累计1815.96万元（05-28）</t>
-  </si>
-  <si>
-    <t>3.93亿元资金今日流出轻工制造股</t>
-  </si>
-  <si>
-    <t>投资股票要客观分析股票涨跌的原因，我认为美克家居下跌主要是人民币升值，对出口企业</t>
-  </si>
-  <si>
-    <t>刚给美克家居董事会办公室打了电话。电话对面是美克家居公司证券部，女声，我对其进行</t>
-  </si>
-  <si>
-    <t>我发起了一个投票，【#美克家居#对于因美克家居股价被操纵而给投资者造成的损失，美克的投资者是否愿意追偿？】，快来参与投票吧~</t>
-  </si>
-  <si>
-    <t>对操纵股价说不！要维权到底。</t>
-  </si>
-  <si>
-    <t>美克家居5月28日打开跌停</t>
-  </si>
-  <si>
-    <t>美克家居5月28日盘中跌停</t>
-  </si>
-  <si>
-    <t>美克家居5月28日加速下跌</t>
-  </si>
-  <si>
-    <t>美克家居5月28日盘中跌幅达5%</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-27)</t>
-  </si>
-  <si>
-    <t>2020年我国家具行业终端市场规模为8042.2亿元。我国每套住宅平均家具花费为</t>
-  </si>
-  <si>
-    <t>美克家居：融资净买入1122.04万元，融资余额1.62亿元（05-27）</t>
-  </si>
-  <si>
-    <t>$美克家居(SH600337)$一天天的这股吧里尽是些喷子，毫无价值</t>
-  </si>
-  <si>
-    <t>美克家居：为控股子公司提供担保</t>
-  </si>
-  <si>
-    <t>105股每笔成交量增超50%</t>
-  </si>
-  <si>
-    <t>600337:美克国际家居用品股份有限公司关于为控股子公司提供担保的公告</t>
-  </si>
-  <si>
-    <t>美克家居旗下品牌恣在家上市三年，做什么c2m模式，年年亏钱，去年都做黄了，都是用</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-26)</t>
-  </si>
-  <si>
-    <t>美克家居：融资净买入199.41万元，融资余额1.51亿元（05-26）</t>
-  </si>
-  <si>
-    <t>通过“天眼”查询：美克家居创始人之一：陈江，目前为美克集团副董事长，上海美克投资</t>
-  </si>
-  <si>
-    <t>给美克股民朋友的重要提示：大股东使用上市公司为其新开立的与上市公司并无关联的其他</t>
-  </si>
-  <si>
-    <t>通告：鉴于美克家居向资产负债率超过70%（已达到89%）的美克集团子公司“美克顺</t>
-  </si>
-  <si>
-    <t>600337:美克国际家居用品股份有限公司第八届董事会第三次会议决议公告</t>
-  </si>
-  <si>
-    <t>600337:美克国际家居用品股份有限公司关于召开2021年第六次临时股东大会的通知</t>
-  </si>
-  <si>
-    <t>江西区域股市周报：总市值涨170亿 仁和药业涨19.16%排第一</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-25)</t>
-  </si>
-  <si>
-    <t>美克家居：融资余额1.49亿元，创近一年新低（05-25）</t>
-  </si>
-  <si>
-    <t>居然之家携手阿里巴巴近期对子公司“躺平””家居设计有限公司的增资并打造海外融资平</t>
-  </si>
-  <si>
-    <t>【闻鼓论津】秦鹏飞：世界智能大会为津城夯实智能科技产业基础</t>
-  </si>
-  <si>
-    <t>美克家居从设计，原材料，风格等角度来说都是比较能满足消费者的，也是国内高端家居的</t>
-  </si>
-  <si>
-    <t>美克家居：融资净买入21.5万元，融资余额1.49亿元（05-24）</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-24)</t>
-  </si>
-  <si>
-    <t>九万多股东，前十大占6o％以上，成本平均十元左右，每股现金流负14块多，鬼才陪他</t>
-  </si>
-  <si>
-    <t>美克家居本周融资净偿还3943.47万元，居木业家具板块第一</t>
-  </si>
-  <si>
-    <t>周一涨停早知道，美克家居，突破后爆力洗盘，力帆科技，重组吉利控股后，换电新能源汽</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-21)</t>
-  </si>
-  <si>
-    <t>美克家居：融资余额1.49亿元，创近一年新低（05-21）</t>
-  </si>
-  <si>
-    <t>美克家居5月21日快速上涨</t>
-  </si>
-  <si>
-    <t>美克家居05月20日被沪股通减持487.91万股</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-20)</t>
-  </si>
-  <si>
-    <t>美克家居：融资余额1.51亿元，创近一年新低（05-20）</t>
-  </si>
-  <si>
-    <t>通告：经过我们大数据的精准测算，从2020年11月1日至2021年5月20日止，</t>
-  </si>
-  <si>
-    <t>大家一起来谈谈美克这两天走势有啥玄机？$美克家居(SH600337)$</t>
-  </si>
-  <si>
-    <t>3-1-2发行保荐书(北京阳光诺和药物研究股份有限公司)</t>
-  </si>
-  <si>
-    <t>从家居行业整体看来，前景还是不错的，90、80后都逐渐成为买房后备军，那需求有了</t>
-  </si>
-  <si>
-    <t>股价怎么可能一直涨，有跌有涨不是很正常吗，而且这股吧里的散户能不能不要目光短浅，</t>
-  </si>
-  <si>
-    <t>昨天已经非常明确的说止盈美克家居了，主力自己对倒拉股价，杀的就是你，昨天说的很清</t>
-  </si>
-  <si>
-    <t>84股获杠杆资金大手笔加仓</t>
-  </si>
-  <si>
-    <t>提醒风险了，昨天已经卖出美克家居，全仓杀入碳中和，今天买入华银，长源电力两个龙头</t>
-  </si>
-  <si>
-    <t>美克家居5月20日盘中跌幅达5%</t>
-  </si>
-  <si>
-    <t>美克家居5月20日加速下跌</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-19)</t>
-  </si>
-  <si>
-    <t>美克家居：融资余额1.55亿元，创近一年新低（05-19）</t>
-  </si>
-  <si>
-    <t>以下个股均为短线备选股，控制仓位，破位止损，如需精准指导合作请留言回复，祝君好运</t>
-  </si>
-  <si>
-    <t>$中科电气(SZ300035)$$海信视像(SH600060)$股票代码及名称/</t>
-  </si>
-  <si>
-    <t>我说了我从来不马后炮!跟着我的人，只要知行合一，吃肉就完事了。请务必赚认知内的钱</t>
-  </si>
-  <si>
-    <t>今天观察很久的家居生活板块有几只股票在冒泡，易尚展示，顶固集创美克家居，倍加洁。</t>
-  </si>
-  <si>
-    <t>美克家居5月19日盘中涨幅达5%</t>
-  </si>
-  <si>
-    <t>美克家居5月19日快速上涨</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-18)</t>
-  </si>
-  <si>
-    <t>美克家居：连续3日融资净买入累计435.15万元（05-18）</t>
-  </si>
-  <si>
-    <t>今天小美还是涨，前两天股市小幅度的波动还是能理解的，观望一下吧$美克家居(SH6</t>
-  </si>
-  <si>
-    <t>美克家居(600337)融资融券信息(05-17)</t>
-  </si>
-  <si>
-    <t>美克家居：融资净买入92.91万元，融资余额1.89亿元（05-17）</t>
-  </si>
-  <si>
-    <t>600337:美克国际家居用品股份有限公司2020年度股东大会决议公告</t>
-  </si>
-  <si>
-    <t>2021年一季报盈利榜：家用轻工行业</t>
-  </si>
-  <si>
-    <t>昨天发的，只马前炮哈!今天放量滞胀，我卖出了。欢迎布局美克家居，主升在即双良节能</t>
-  </si>
-  <si>
-    <t>简单说一下，小盘股和白马的看法。叶飞概念错杀所有小盘股，st股普杀请问叶飞是初犯</t>
-  </si>
-  <si>
-    <t>叶飞错杀股都是黄金坑，小盘该跌不跌的就是爹，美克家居，双良节能，珠江股份，都是神</t>
-  </si>
-  <si>
-    <t>美克家居本周融资净偿还1827.66万元，居木业家具板块第一</t>
-  </si>
-  <si>
-    <t>美克家居本周沪股通持股市值增加2108.17万元，居木业家具板块第三</t>
-  </si>
-  <si>
-    <t>有人问我投资美克家居的理由是什么，投资点在哪里，我回答如下：1～我投资美克家居的</t>
-  </si>
-  <si>
-    <t>涨反跌，现在看来是资本方，重要人员是马渲！所以要举牌就举牌，不举牌去证监会交资料，别来这做空！不举牌，把筹码让出来，让别人举。马渲你们去美克家居没人说你！还有你跟深圳派什么关系自己说，别让散户挖到了，性质不一样！价值股最终是会上涨，不被任何力量阻挡，不信马渲的托砸盘试试！2.马渲</t>
-  </si>
-  <si>
-    <t>财联社记者今日致电美克家居，公司称“网上文章内容纯属主观臆造，我司从未参与过股票操纵，从未向任何机构和个人支付保证金、提供内幕信息。相关人员别有用心捏造的内容，严重侵犯了公司和股东的名誉。公司将对个别人士恶意散播虚假、诋毁信息，混淆视听、误导市场的违法行为采取相应的法律行动，以</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：证券时报 　　 记者致电美克家居，公司称：“网上文章内容纯属主观臆造，我司从未参与过股票操纵，从未向任何机构和个人支付保证金、提供内幕信息。相关人员别有用心捏造的内容，严重侵犯了公司和股东的名誉。公司将对个别人士恶意散播虚假、诋毁信息，混淆视听、误导市场的违法行为采取相应的法律行动，以维护公司及股东的声誉及合法权益。目前公司经营情况平稳。”（文章来源：证券时报） [点击查看原文] ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月31日09:36分盘口异动快照：5月31日，美克家居盘中跌幅达5%，截至9点36分，报4.46元，成交3329.35万元，换手率0.45%。分笔09:36:304.46714↓09:36:274.47430↑09</t>
-  </si>
-  <si>
-    <t>原材料采购成本。　　另外，家居行业的原材料也是木材，因此也会因人民币升值而受益。但真正能对利润有助益的上市公司并不多，投资者需要仔细甄别。例如，高端家具制造企业美克家居(4.620,-0.08,-1.70%)（600337.SH）天津、赣州制造基地都是利用当地的原材料优势。而越南</t>
-  </si>
-  <si>
-    <t>美克家居为什么不发声，难道传闻是真的</t>
-  </si>
-  <si>
-    <t>有限责任公司，北京聚核创能科技有限公司，琼海博鳌基金小镇置业有限公司等，政府官员离职办企业，进行了一系列经营活动。2、杨近期行为：2021年5月27日，杨震在没有任何实质证据的情况下，通过个人关系在天涯社区（只在这种媒体上发原稿）发帖，发布了名字为：叶飞事件引发余震持续，美克家居操纵团伙...</t>
-  </si>
-  <si>
-    <t>杨震博士举报上市公司属实吗？针对杨震博士的举报上市公司美克家居的几个涉嫌重大违法问题，我们仔细分析，就会觉得非常可笑，纯粹的道听途说，而且非常不专业：第一，说社保基金违规接盘，受贿。这个说法非常可笑：其一，我们知道，机构买股票，尤其是保险买股票，那都是有严格的流程和规定的，买</t>
-  </si>
-  <si>
-    <t>，高端家具制造企业美克家居(600337.SH)天津、赣州制造基地都是利用当地的原材料优势。而越南的制造基地主要针对出口业务，因此受人民币升值的影响不大。
- 　　木材应用中最直接受益的是林木加工等从事上游环节企业。但目前A股主要上市公司平潭发展(000592.SZ)、兔宝宝</t>
-  </si>
-  <si>
-    <t>【叶飞事件引发余震持续，“美克家居”操纵团伙自爆“案中案”，社保基金“又爆行贿门”】许亚飞及黄姓合伙人二人“自爆”称，他们团队多年来操纵多支股票。许、黄二人的团队技术和资金优势明显，此次他们收取了上市公司“美克家居”的保证金，上市公司为其全程提供内幕信息。他们因掌握“美克家居</t>
-  </si>
-  <si>
-    <t>美克家居本周(2021/05/24-2021/05/28)累计跌幅达9.09%，截至5月28日最新股价报收4.70元。从增量上来看，5月24日至5月28日融资买入交易规模5760.55万元，融资偿还规模3971.13万元，期内融资净买入1789.41万元。从存量上来看，截止5月</t>
-  </si>
-  <si>
-    <t>美克家居本周(2021/05/23-2021/05/30)累计跌幅达9.09%，截至当前最新股价报收4.70元。从增量上来看，5月24日至5月28日间美克家居获沪股通增持107.9万股，持股市值增加493.14万元。从存量上来看，截至当前最新持股量3381.27万股，最新持股</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月28日融资融券信息显示，美克家居融资余额166,700,941元，融券余额805,110元，融资买入额36,505,496元，融资偿还额31,560,371元，融资净买额4,945,125元</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月28日融资净买入494.51万元；融资余额1.67亿元，较前一日增加3.06%。融资方面，当日融资买入3650.55万元，融资偿还3156.04万元，融资净买入494.51万元，连续3日净</t>
-  </si>
-  <si>
-    <t>。轻工制造行业资金净流出个股中，资金净流出超3000万元的有7只，净流出资金居前的有太阳纸业、晨鸣纸业、美克家居，净流出资金分别为1.81亿元、8566.38万元、8468.54万元。(数据宝)
- 　　轻工制造行业资金流入榜
- 代码简称今日涨跌幅(%)今日换手率(%)主力资金流量...</t>
-  </si>
-  <si>
-    <t>投资股票要客观分析股票涨跌的原因，我认为美克家居下跌主要是人民币升值，对出口企业负面影响很大，国家队先知先觉已经跑了。我们散户不能做怨妇，不能想当然。要正确分析涨跌真正原因。不喜勿喷。</t>
-  </si>
-  <si>
-    <t>刚给美克家居董事会办公室打了电话。电话对面是美克家居公司证券部，女声，我对其进行了询问：1.问：贵公司“案中案”叶飞相关新闻是否属实？答：不存在该种情况。2问：贵公司大股东“美克投资”是否存在市值管理？答：不存在新闻中所述问：我个人觉得大股东有市值管理的嫌疑，同时美克家居给其</t>
-  </si>
-  <si>
-    <t>我发起了一个投票。</t>
-  </si>
-  <si>
-    <t>今天美克家居的下跌走势，根本原因是来自自媒体的一篇关于美克参与市值管理的报道，由此股价下跌10%，给正常投资人造成了严重的损失。为此倡议投资者拿起法律武器来维护我们正当的合法权益。    1、如果美克公司不及时出来澄清，表明股价操纵案已是既定事实，我们要向证券监管部门直接举报</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月28日13:05分盘口异动快照：5月28日13点5分，美克家居盘中打开跌停，现报4.67元，成交2.02亿元，换手率2.53%。该股之前于13点5分跌停。分笔13:05:594.67863↑13:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月28日13:05分盘口异动快照：5月28日13点5分，美克家居盘中跌停，报4.66元，目前封单863手，折合40.23万元。截至目前，成交2.00亿元，换手率2.50%。分笔13:05:294.666955↓13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月28日13:00分盘口异动快照：5月28日，美克家居盘中加速下跌，5分钟内跌幅超过2%，截至13点00分，报4.75元，成交1.61亿元，换手率1.99%。分笔13:00:264.751385↓13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月28日10:15分盘口异动快照：5月28日，美克家居盘中跌幅达5%，截至10点15分，报4.92元，成交8718.31万元，换手率1.06%。分笔10:15:104.921259↓10:15:074.931162</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月27日融资融券信息显示，美克家居融资余额161,755,816元，融券余额34,706元，融资买入额13,998,226元，融资偿还额2,777,861元，融资净买额11,220,365元</t>
-  </si>
-  <si>
-    <t>2020年我国家具行业终端市场规模为8042.2亿元。我国每套住宅平均家具花费为2.88万元，总体呈现上升趋势。二手房配套需求增长迅猛，未来包含二手房配套需求的更新需求将替代新房将成为行业最大需求。$美克家居(SH600337)$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月27日融资净买入1122.04万元；融资余额1.62亿元，较前一日增加7.45%。融资方面，当日融资买入1399.82万元，融资偿还277.79万元，融资净买入1122.04万元。融券方面</t>
-  </si>
-  <si>
-    <t>$美克家居(SH600337)$ 一天天的这股吧里尽是些喷子，毫无价值</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：发布易 　　美克家居(600337)公告重要内容提示，被担保人名称：VietnamFurnitureResourcesCo。，Ltd(以下称“VFR公司”)，美克国际家居用品股份有限公司(以下称“公司”或“本公司”)为控股子公司VFR公司210万美元(按2021年5月</t>
-  </si>
-  <si>
-    <t>成交量环比下降。其中天宸股份、*ST商城、美克家居等个股环比增幅较大。从单只个股成交笔数来看，湘财股份、扬帆新材、泰达股份等三只个股环比增幅居前，说明这些个股近期表现活跃。结合每笔成交量和成交笔数来看，有27只个股每笔成交量和成交笔数环比增幅均超50%，详情如下表所示。(数据宝</t>
-  </si>
-  <si>
-    <t>公告日期：2021-05-28证券代码：600337        证券简称：美克家居        编号：临 2021-059        美克国际家居用品股份有限公司      关于为控股子公司提供担保的公告    本公司董事会及全体董事保证本公告内容不存在任何虚假记载</t>
-  </si>
-  <si>
-    <t>美克家居旗下品牌恣在家上市三年，做什么c2m模式，年年亏钱，去年都做黄了，都是用的股民的钱！</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月26日融资融券信息显示，美克家居融资余额150,535,451元，融券余额34,639元，融资买入额4,349,612元，融资偿还额2,355,481元，融资净买额1,994,131元，融券</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月26日融资净买入199.41万元；融资余额1.51亿元，较前一日增加1.34%。融资方面，当日融资买入434.96万元，融资偿还235.55万元，融资净买入199.41万元。融券方面，融券</t>
-  </si>
-  <si>
-    <t>通过“天眼”查询：美克家居创始人之一：陈江，目前为美克集团副董事长，上海美克投资公司法人代表；“陈红”（疑为陈江之妹）即为新疆坤皓供应链合伙企业（“美克顺捷”的第二大控股股东）法人代表，美克集团用上市公司为美克顺捷提供担保，大概率是出于集团某方面施加的压力。这是内部两个势力的利益！为无关联的其他公司贷款做担保，很大程度侵害了美克家居股民的利益权利，望广大股民警惕！...</t>
-  </si>
-  <si>
-    <t>通过“天眼”查询：美克家居创始人之一：陈江，目前为美克集团副董事长，上海美克投资公司法人代表；“陈红”（疑为陈江之妹）即为新疆坤皓供应链合伙企业（“美克顺捷”的第二大控股股东）法人代表，美克集团用上市公司为美克顺捷提供担保，大概率是出于陈江势力施加的压力。这是美克内部两个势力的权利争斗！为无关联的其他公司贷款做担保，很大程度侵害了美克家居股民的利益权利，望广大股民警惕！...</t>
-  </si>
-  <si>
-    <t>给美克股民朋友的重要提示：大股东使用上市公司为其新开立的与上市公司并无关联的其他子公司担保贷款，该子公司经营利润并不能带给上市公司（美克家居）任何收益反而还会使上市公司承担或有的债务，大股东的该行为严重侵害了上市公司（美克家居）小股东（股民）的利益，有通过银行贷款变相掏空</t>
-  </si>
-  <si>
-    <t>通告：鉴于美克家居向资产负债率超过70%（已达到89%）的美克集团子公司“美克顺捷”1.5亿元银行授信提供保证担保（连带责任保证担保），严重违反了银行授信不得向资产负债率超过70%的借款主体进行授信的红线规定，且担保对象美克顺捷2020年营业收入18亿元，净利润却仅有800万元</t>
-  </si>
-  <si>
-    <t>公告日期：2021-05-27 证券代码：600337        证券简称：美克家居        编号：临 2021-057        美克国际家居用品股份有限公司      第八届董事会第三次会议决议公告    本公司董事会及全体董事保证本公告内容不存在任何虚假记载</t>
-  </si>
-  <si>
-    <t>公告日期：2021-05-27证券代码：600337        证券简称：美克家居    公告编号：临 2021-058        美克国际家居用品股份有限公司  关于召开 2021 年第六次临时股东大会的通知    本公司董事会及全体董事保证本公告内容不存在任何虚假</t>
-  </si>
-  <si>
-    <t>。
- 　　1家公司接受机构调研，8家机构调研正邦科技
- 　　先看融资资金，5月第3周，江西板块融资净偿还总额为5.94亿元。融资净买入最多的江西股是正邦科技，金额是6055.21万元。其次是美克家居(3943.47万元)和章源钨业(3290.86万元)。
- 　　机构调研方面，5月第3周...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月25日融资融券信息显示，美克家居融资余额148,541,320元，融券余额34,974元，融资买入额1,362,843元，融资偿还额1,843,354元，融资净买额-480,511元，融券余量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月25日融资净偿还48.05万元；融资余额1.49亿元，创近一年新低，较前一日下降0.32%。融资方面，当日融资买入136.28万元，融资偿还184.34万元，融资净偿还48.05万元。融券</t>
-  </si>
-  <si>
-    <t>居然之家携手阿里巴巴近期对子公司“躺平””家居设计有限公司的增资并打造海外融资平台，而就在前不久，美克家居与居然之家签订了战略合作协议，很显然，美克家居或许已经为这次增资动作提前布局。对于突然现身居然之家的美克家居，资本市场猜测美克或许是有备而来。</t>
-  </si>
-  <si>
-    <t>质赋能，助力天津智能制造取得跨越式发展。天津拥有26个智能制造相关行业，是国内智能制造行业门类最齐全的城市。规模以上工业企业中，智能制造企业约占20%，智能制造业增加值比重约为30%。辰星阿童木并联机器人服务客户300余家，涵盖制药和电子等多个领域，行业占有率遥遥领先；美克家居</t>
-  </si>
-  <si>
-    <t>现在购买家居的消费者需求不一，市场上产品端碎片化也严重，美克家居从设计，原材料，风格等角度来说都是比较能满足消费者的，也是国内高端家居的稀缺标的。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月24日融资净买入21.5万元；融资余额1.49亿元，较前一日增加0.14%。融资方面，当日融资买入138.93万元，融资偿还117.43万元，融资净买入21.5万元。融券方面，融券卖出0股</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月24日融资融券信息显示，美克家居融资余额149,021,831元，融券余额45,327元，融资买入额1,389,284元，融资偿还额1,174,267元，融资净买额215,017元，融券余量</t>
-  </si>
-  <si>
-    <t>九万多股东，前十大占6o％以上，成本平均十元左右，每股现金流负14块多，鬼才陪他耍，亏了十多个点认了，还好川环科技几天4O多个点回来了，川环别去了，去可能被割。力帆科技和美克家居，自己关注，不推不荐。</t>
-  </si>
-  <si>
-    <t>美克家居本周(2021/05/17-2021/05/21)累计跌幅达0.19%，截至5月21日最新股价报收5.17元。从增量上来看，5月17日至5月21日融资买入交易规模3601.31万元，融资偿还规模7544.79万元，期内融资净偿还3943.47万元。从存量上来看，截止5月</t>
-  </si>
-  <si>
-    <t>周一涨停早知道，美克家居，突破后爆力洗盘，力帆科技，重组吉利控股后，换电新能源汽车下线！</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月21日融资融券信息显示，美克家居融资余额148,806,814元，融券余额55,319元，融资买入额2,379,244元，融资偿还额4,599,225元，融资净买额-2,219,981元，融券</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月21日融资净偿还222万元；融资余额1.49亿元，创近一年新低，较前一日下降1.47%。融资方面，当日融资买入237.92万元，融资偿还459.92万元，融资净偿还222万元，连续3日净偿还</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月21日09:38分盘口异动快照：5月21日，美克家居盘中快速上涨，5分钟内涨幅超过2%，截至9点38分，报5.36元，成交1426.41万元，换手率0.17%。分笔09:38:105.364600↑09:38</t>
-  </si>
-  <si>
-    <t>05月20日，美克家居被沪股通减持487.91万股，最新持股量为3275.94万股，占公司A股总股本的2.01%。近五日持股量数据持股量及股价变动图注：文中持股数量经过前复权处理，可能存在与港交所披露不一致的情形。免责声明：本文基于大数据生产，仅供参考，不构成任何投资建议，据此</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月20日融资融券信息显示，美克家居融资余额151,026,795元，融券余额81,169元，融资买入额15,085,225元，融资偿还额18,909,951元，融资净买额-3,824,726元</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月20日融资净偿还382.47万元；融资余额1.51亿元，创近一年新低，较前一日下降2.47%。融资方面，当日融资买入1508.52万元，融资偿还1891万元，融资净偿还382.47万元。融券</t>
-  </si>
-  <si>
-    <t>通告：经过我们大数据的精准测算，从2020年11月1日至2021年5月20日止，美克家居的散户活跃资金进出量为日均1800万元，5月17日至20日日均散户资金为860万元，5月19日散户资金进出量为1700万元，5月19日当天美克家居全天成交量为1.86亿元。</t>
-  </si>
-  <si>
-    <t>民生证券投资银行事业部执行总经理。曾参与或负责了北斗星通（002151）IPO、信邦制药（002390）IPO、美克家居（600337）2010 年非公开发行、雪迪龙（002658）IPO、中储股份（600787）2012 年非公开发行股份购买资产、中储股份（600787）2015...</t>
-  </si>
-  <si>
-    <t>从家居行业整体看来，前景还是不错的，90、80后都逐渐成为买房后备军，那需求有了，还怕家居行业不景气？小美还是个龙头，怕啥？$美克家居(SH600337)$</t>
-  </si>
-  <si>
-    <t>股价怎么可能一直涨，有跌有涨不是很正常吗，而且这股吧里的散户能不能不要目光短浅，美克家居是国内高端家居的稀缺标的，反正我个人还是比较相信龙头企业的。</t>
-  </si>
-  <si>
-    <t>昨天已经非常明确的说止盈美克家居了，主力自己对倒拉股价，杀的就是你，昨天说的很清楚跟我杀碳中和，信我就有肉，结果没人信，都被贪婪的美克股价留在这。今天早盘华银烂版，规避风险卖出长源，卖的不是价格是风险!结果山东墨龙有大机构接力，直接去抢华银，所幸抢在机构前面买到了，立马弃弱留强</t>
-  </si>
-  <si>
-    <t>公用事业688677海泰新光0.3014.390.12医药生物002179中航光电5.4814.10-2.53国防军工　　与杠杆资金大幅加仓股相比，有885股融资余额出现下降，其中，融资余额降幅超过5%的有44只。美克家居融资余额降幅最大，最新融资余额1.55亿元，与前一个交易日</t>
-  </si>
-  <si>
-    <t>提醒风险了，昨天已经卖出美克家居，全仓杀入碳中和，今天买入华银，长源电力两个龙头全仓!</t>
-  </si>
-  <si>
-    <t>提醒风险了，昨天已经卖出美克家居，全仓杀入碳中和，今天买入华银，长源电力两个龙头全仓!碳中和卖了双良去长源了，弃弱留强</t>
-  </si>
-  <si>
-    <t>提醒风险了，昨天已经卖出美克家居，全仓杀入碳中和，今天买入华银，长源电力两个龙头全仓!碳中和</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月20日09:44分盘口异动快照：5月20日，美克家居盘中跌幅达5%，截至9点44分，报5.22元，成交2916.39万元，换手率0.33%。分笔09:44:195.22179↓09:44:165.2360↑09:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月20日09:44分盘口异动快照：5月20日，美克家居盘中加速下跌，5分钟内跌幅超过2%，截至9点44分，报5.23元，成交2824.00万元，换手率0.32%。分笔09:44:015.23194↓09:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月19日融资融券信息显示，美克家居融资余额154,851,521元，融券余额1,101,650元，融资买入额11,915,440元，融资偿还额48,056,803元，融资净买额</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月19日融资净偿还3614.14万元；融资余额1.55亿元，创近一年新低，较前一日下降18.92%，降幅两市第十。融资方面，当日融资买入1191.54万元，融资偿还4805.68万元，融资净</t>
-  </si>
-  <si>
-    <t>000680山推股份/乡村振兴/回落上升通道线位置进场600060海信视像/超清视频/红三兵603578三星新材/玻璃陶瓷/放量突破下跌通道线回踩进场000723美锦能源/氢能源/回落黄金分割线0.236位置进场600337美克家居/智能家居/放量突破下跌通道线回踩进场000949...</t>
-  </si>
-  <si>
-    <t>线位置进场600060海信视像/超清视频/红三兵603578三星新材/玻璃陶瓷/放量突破下跌通道线回踩进场000723美锦能源/氢能源/回落黄金分割线0.236位置进场600337美克家居/智能家居/放量突破下跌通道线回踩进场000949新乡化纤/化纤行业/放量突破下跌通道线回踩</t>
-  </si>
-  <si>
-    <t>/乡村振兴/回落上升通道线位置进场600060海信视像/超清视频/红三兵603578三星新材/玻璃陶瓷/放量突破下跌通道线回踩进场000723美锦能源/氢能源/回落黄金分割线0.236位置进场600337美克家居/智能家居/放量突破下跌通道线回踩进场000949新乡化纤/化纤行业/放量...</t>
-  </si>
-  <si>
-    <t>我说了我从来不马后炮!跟着我的人，只要知行合一，吃肉就完事了。请务必赚认知内的钱，还有一只珠江股份，近期没热点，先出了。下面信我的，继续加仓双良节能，打版长源电力!碳中和六月概念月，百年大计少不了绿色发展，六月试点。日线走出水上金叉，随便找个板块看看水上金叉后至少几个大阳线!我已全仓双良节能，长源电力。美克家居止盈，珠江走了，不是他们不好，逻辑没变，是我碳中和更好!...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月19日14:05分盘口异动快照：5月19日，美克家居盘中涨幅达5%，截至14点05分，报5.49元，成交1.46亿元，换手率1.69%。分笔14:05:045.49234↑14:05:015.481506↑14:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 以下是美克家居在北京时间5月19日13:16分盘口异动快照：5月19日，美克家居盘中快速上涨，5分钟内涨幅超过2%，截至13点16分，报5.42元，成交9726.57万元，换手率1.14%。分笔13:16:035.425059↑13:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月18日融资融券信息显示，美克家居融资余额190,992,884元，融券余额34,974元，融资买入额3,833,893元，融资偿还额2,011,622元，融资净买额1,822,271元，融券</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月18日融资净买入182.23万元；融资余额1.91亿元，较前一日增加0.96%。融资方面，当日融资买入383.39万元，融资偿还201.16万元，融资净买入182.23万元，连续3日净买入</t>
-  </si>
-  <si>
-    <t>今天小美还是涨，前两天股市小幅度的波动还是能理解的，观望一下吧$美克家居(SH600337)$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年5月17日融资融券信息显示，美克家居融资余额189,170,613元，融券余额86,506元，融资买入额2,799,340元，融资偿还额1,870,253元，融资净买额929,087元，融券余量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年5月17日融资净买入92.91万元；融资余额1.89亿元，较前一日增加0.49%。融资方面，当日融资买入279.93万元，融资偿还187.03万元，融资净买入92.91万元。融券方面，融券卖出1</t>
-  </si>
-  <si>
-    <t>公告日期：2021-05-18证券代码：600337        证券简称：美克家居    公告编号：临 2021-056        美克国际家居用品股份有限公司          2020 年度股东大会决议公告    本公司董事会及全体董事保证本公告内容不存在任何虚假</t>
-  </si>
-  <si>
-    <t>销售收入扣除销售成本后，可用于各项期间费用和形成盈利的比例。2021年一季报，有26家家用轻工公司毛利率实现同比增长，占比35.14%。其中，亚振家居以62.93%的毛利率问鼎榜首，同比增加20.54个百分点；此外，*ST群兴、美克家居、姚记科技、曲美家居也在毛利率榜前五名之列</t>
-  </si>
-  <si>
-    <t>昨天发的，只马前炮哈!今天放量滞胀，我卖出了。欢迎布局美克家居，主升在即双良节能，碳中和热点珠江股份，反包在即。</t>
-  </si>
-  <si>
-    <t>，我没见哪个主力大幅度流出。前提是我看好的小盘股。美克家居，双良节能，珠江股份。期待你的加入。至于我的看法，只是看法，欢迎切磋。时间会给答案，不论输赢，有收获就是成长。理性分析，理性对待。最后，祝大家一路长虹。无脑看多看空，都只能当小丑罢了，凭运气去猜的，最终会败给实际</t>
-  </si>
-  <si>
-    <t>美克家居本周(2021/05/10-2021/05/14)累计跌幅达3.36%，截至5月14日最新股价报收5.18元。从增量上来看，5月10日至5月14日融资买入交易规模3730.34万元，融资偿还规模5558万元，期内融资净偿还1827.66万元。从存量上来看，截止5月16日</t>
-  </si>
-  <si>
-    <t>美克家居本周(2021/05/09-2021/05/16)累计跌幅达3.36%，截至当前最新股价报收5.18元。从增量上来看，5月10日至5月14日间美克家居获沪股通增持401.76万股，持股市值增加2108.17万元。从存量上来看，截至当前最新持股量3660.87万股，最新</t>
-  </si>
-  <si>
-    <t>有人问我投资美克家居的理由是什么，投资点在哪里，我回答如下：1～我投资美克家居的理由是中国住宅的刚需以及人民越来越年轻化物质生活越来丰满带来的精神文明的提升，人们的“家”会越来越漂亮越来越高档。2～我投资美克家居的投资点，即是冯东明的人品。</t>
-  </si>
-  <si>
-    <t>2021-05-31 10:24:34</t>
-  </si>
-  <si>
-    <t>2021-05-31 10:15:29</t>
-  </si>
-  <si>
-    <t>2021-05-31 10:06:42</t>
-  </si>
-  <si>
-    <t>2021-05-31 10:04:53</t>
-  </si>
-  <si>
-    <t>2021-05-31 09:41:05</t>
-  </si>
-  <si>
-    <t>2021-05-31 09:29:59</t>
-  </si>
-  <si>
-    <t>2021-05-31 09:14:28</t>
-  </si>
-  <si>
-    <t>2021-05-31 08:14:24</t>
-  </si>
-  <si>
-    <t>2021-05-31 08:05:11</t>
-  </si>
-  <si>
-    <t>2021-05-31 07:01:09</t>
-  </si>
-  <si>
-    <t>2021-05-30 23:28:55</t>
-  </si>
-  <si>
-    <t>2021-05-30 21:32:20</t>
-  </si>
-  <si>
-    <t>2021-05-30 15:32:13</t>
-  </si>
-  <si>
-    <t>2021-05-30 15:05:16</t>
-  </si>
-  <si>
-    <t>2021-05-30 14:14:43</t>
-  </si>
-  <si>
-    <t>2021-05-29 21:51:45</t>
-  </si>
-  <si>
-    <t>2021-05-29 19:48:00</t>
-  </si>
-  <si>
-    <t>2021-05-29 07:52:54</t>
-  </si>
-  <si>
-    <t>2021-05-29 07:39:28</t>
-  </si>
-  <si>
-    <t>2021-05-29 07:37:02</t>
-  </si>
-  <si>
-    <t>2021-05-28 17:41:46</t>
-  </si>
-  <si>
-    <t>2021-05-28 16:56:35</t>
-  </si>
-  <si>
-    <t>2021-05-28 16:19:07</t>
-  </si>
-  <si>
-    <t>2021-05-28 15:51:23</t>
-  </si>
-  <si>
-    <t>2021-05-28 15:46:13</t>
-  </si>
-  <si>
-    <t>2021-05-28 13:06:04</t>
-  </si>
-  <si>
-    <t>2021-05-28 13:05:42</t>
-  </si>
-  <si>
-    <t>2021-05-28 13:00:39</t>
-  </si>
-  <si>
-    <t>2021-05-28 10:15:26</t>
-  </si>
-  <si>
-    <t>2021-05-28 07:47:20</t>
-  </si>
-  <si>
-    <t>2021-05-28 07:40:12</t>
-  </si>
-  <si>
-    <t>2021-05-28 07:35:13</t>
-  </si>
-  <si>
-    <t>2021-05-28 07:32:56</t>
-  </si>
-  <si>
-    <t>2021-05-27 19:12:50</t>
-  </si>
-  <si>
-    <t>2021-05-27 18:41:12</t>
-  </si>
-  <si>
-    <t>2021-05-27 15:34:19</t>
-  </si>
-  <si>
-    <t>2021-05-27 15:02:38</t>
-  </si>
-  <si>
-    <t>2021-05-27 07:39:18</t>
-  </si>
-  <si>
-    <t>2021-05-27 07:38:31</t>
-  </si>
-  <si>
-    <t>2021-05-26 23:32:06</t>
-  </si>
-  <si>
-    <t>2021-05-26 23:17:49</t>
-  </si>
-  <si>
-    <t>2021-05-26 21:33:50</t>
-  </si>
-  <si>
-    <t>2021-05-26 18:08:50</t>
-  </si>
-  <si>
-    <t>2021-05-26 16:46:11</t>
-  </si>
-  <si>
-    <t>2021-05-26 16:46:10</t>
-  </si>
-  <si>
-    <t>2021-05-26 11:00:21</t>
-  </si>
-  <si>
-    <t>2021-05-26 07:37:26</t>
-  </si>
-  <si>
-    <t>2021-05-26 07:36:29</t>
-  </si>
-  <si>
-    <t>2021-05-25 20:45:41</t>
-  </si>
-  <si>
-    <t>2021-05-25 20:39:10</t>
-  </si>
-  <si>
-    <t>2021-05-25 14:46:31</t>
-  </si>
-  <si>
-    <t>2021-05-25 07:42:51</t>
-  </si>
-  <si>
-    <t>2021-05-25 07:38:51</t>
-  </si>
-  <si>
-    <t>2021-05-23 19:31:54</t>
-  </si>
-  <si>
-    <t>2021-05-23 15:07:40</t>
-  </si>
-  <si>
-    <t>2021-05-22 22:00:10</t>
-  </si>
-  <si>
-    <t>2021-05-22 07:52:50</t>
-  </si>
-  <si>
-    <t>2021-05-22 07:41:14</t>
-  </si>
-  <si>
-    <t>2021-05-21 09:41:07</t>
-  </si>
-  <si>
-    <t>2021-05-21 07:43:14</t>
-  </si>
-  <si>
-    <t>2021-05-21 07:40:23</t>
-  </si>
-  <si>
-    <t>2021-05-21 07:40:06</t>
-  </si>
-  <si>
-    <t>2021-05-20 20:24:03</t>
-  </si>
-  <si>
-    <t>2021-05-20 18:54:27</t>
-  </si>
-  <si>
-    <t>2021-05-20 17:20:45</t>
-  </si>
-  <si>
-    <t>2021-05-20 16:42:53</t>
-  </si>
-  <si>
-    <t>2021-05-20 16:01:43</t>
-  </si>
-  <si>
-    <t>2021-05-20 10:34:30</t>
-  </si>
-  <si>
-    <t>2021-05-20 10:16:42</t>
-  </si>
-  <si>
-    <t>2021-05-20 10:14:04</t>
-  </si>
-  <si>
-    <t>2021-05-20 10:09:16</t>
-  </si>
-  <si>
-    <t>2021-05-20 10:08:40</t>
-  </si>
-  <si>
-    <t>2021-05-20 10:08:14</t>
-  </si>
-  <si>
-    <t>2021-05-20 09:46:34</t>
-  </si>
-  <si>
-    <t>2021-05-20 09:46:24</t>
-  </si>
-  <si>
-    <t>2021-05-20 07:53:27</t>
-  </si>
-  <si>
-    <t>2021-05-20 07:38:01</t>
-  </si>
-  <si>
-    <t>2021-05-19 20:56:19</t>
-  </si>
-  <si>
-    <t>2021-05-19 20:39:56</t>
-  </si>
-  <si>
-    <t>2021-05-19 20:26:20</t>
-  </si>
-  <si>
-    <t>2021-05-19 14:41:15</t>
-  </si>
-  <si>
-    <t>2021-05-19 14:40:31</t>
-  </si>
-  <si>
-    <t>2021-05-19 14:21:22</t>
-  </si>
-  <si>
-    <t>2021-05-19 14:05:10</t>
-  </si>
-  <si>
-    <t>2021-05-19 13:16:16</t>
-  </si>
-  <si>
-    <t>2021-05-19 07:55:16</t>
-  </si>
-  <si>
-    <t>2021-05-19 07:37:08</t>
-  </si>
-  <si>
-    <t>2021-05-18 14:13:14</t>
-  </si>
-  <si>
-    <t>2021-05-18 07:39:47</t>
-  </si>
-  <si>
-    <t>2021-05-18 07:35:19</t>
-  </si>
-  <si>
-    <t>2021-05-17 17:07:12</t>
-  </si>
-  <si>
-    <t>2021-05-17 16:28:24</t>
-  </si>
-  <si>
-    <t>2021-05-17 16:20:47</t>
-  </si>
-  <si>
-    <t>2021-05-17 15:14:17</t>
-  </si>
-  <si>
-    <t>2021-05-17 15:14:09</t>
-  </si>
-  <si>
-    <t>2021-05-17 15:13:59</t>
-  </si>
-  <si>
-    <t>2021-05-17 15:03:25</t>
-  </si>
-  <si>
-    <t>2021-05-16 15:07:40</t>
-  </si>
-  <si>
-    <t>2021-05-16 14:06:18</t>
-  </si>
-  <si>
-    <t>2021-05-15 21:34:08</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,000510,1040220495.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040208555.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040197721.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040193721.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040157112.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,870120,1040132717.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040117540.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040104541.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040103204.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,cjpl,1040106112.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040067632.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040055766.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040023205.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040019815.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1040012379.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039953303.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600088,1039942748.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,300055,1039866914.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039864972.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039864548.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,cjpl,1039770753.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039760638.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039751871.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039744467.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039743089.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039601790.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039601776.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039597915.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039475484.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039364971.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039363282.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039362344.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039361818.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039287681.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,cjpl,1039274977.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039215866.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1039199029.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038862715.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038862489.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038831018.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038829007.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038806913.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038763215.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038743255.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038743261.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,cjpl,1038644308.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038368265.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038367982.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038297769.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,cjpl,1038322258.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1038185461.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1037836762.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1037836003.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600153,1037321973.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1037299756.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,zssh000001,1037237882.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1037158101.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1037156392.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036760131.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036708970.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036708574.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036708490.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036639759.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036621530.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,gs81071247,1036600901.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036590908.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036579900.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036350246.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,cjpl,1036471643.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,000966,1036322437.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600481,1036315100.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,000966,1036314166.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036313519.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036279194.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036279169.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036217075.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036213896.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,002169,1036140452.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,603578,1036136933.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,603738,1036133961.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1036030962.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600481,1036030247.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,zssh000001,1036012630.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035997727.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035954464.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035733314.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035729138.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,zssh000001,1035539487.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035278853.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035278007.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035158616.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,002489,1035149060.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,603518,1035147288.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600684,1035125459.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1035125376.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600481,1035125305.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600684,1035119621.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1034696320.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1034689096.html?from=se</t>
-  </si>
-  <si>
-    <t>http://guba.eastmoney.com/news,600337,1034618476.html?from=se</t>
+    <t>【纳斯达克】</t>
+  </si>
+  <si>
+    <t>【欧派家居】</t>
+  </si>
+  <si>
+    <t>【建设银行】</t>
+  </si>
+  <si>
+    <t>【祁连山】</t>
+  </si>
+  <si>
+    <t>【太原重工】</t>
+  </si>
+  <si>
+    <t>【金刚玻璃】</t>
+  </si>
+  <si>
+    <t>美克家居退市了</t>
+  </si>
+  <si>
+    <t>美克家居：融资净买入153.24万元，融资余额1.88亿元（06-24）</t>
+  </si>
+  <si>
+    <t>美克家居：融资净买入336.91万元，融资余额1.87亿元（06-23）</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司2021年第七次临时股东大会会议资料</t>
+  </si>
+  <si>
+    <t>美克家居：融资净偿还94.48万元，融资余额1.83亿元（06-22）</t>
+  </si>
+  <si>
+    <t>美克家居：融资净偿还67.03万元，融资余额1.84亿元（06-21）</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司关于2020年年度报告信息披露监管工作函的回复公告</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司担保公告</t>
+  </si>
+  <si>
+    <t>家居业一周：宜家产品标识不合格被罚 居然之家上榜特许连锁百强</t>
+  </si>
+  <si>
+    <t>美克家居本周融资净偿还233.97万元，居木业家具板块第七</t>
+  </si>
+  <si>
+    <t>美克家居本周沪股通持股市值增加1793.83万元，居木业家具板块第四</t>
+  </si>
+  <si>
+    <t>美克家居：融资净买入189.73万元，融资余额1.85亿元（06-18）</t>
+  </si>
+  <si>
+    <t>通告：由于近期较多的国外投资者开始买进了美克家居股票，因此，国内股民在美克家居股</t>
+  </si>
+  <si>
+    <t>美克家居：连续6日融资净偿还累计920.38万元（06-17）</t>
+  </si>
+  <si>
+    <t>美克家居：连续5日融资净偿还累计782.74万元（06-16）</t>
+  </si>
+  <si>
+    <t>2020中国特许连锁百强发布 居然之家、尚品宅配等上榜</t>
+  </si>
+  <si>
+    <t>$海思科(SZ002653)$ $美克家居(SH600337)$ 止损卖出</t>
+  </si>
+  <si>
+    <t>600337美克家居，到进场的时候啦</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司2017年员工持股计划持有人会议决议公告</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司关于召开2021年第七次临时股东大会的通知</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司2021年第六次临时股东大会决议公告</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司第八届董事会第四次会议决议公告</t>
+  </si>
+  <si>
+    <t>美克家居本周融资净偿还176.89万元，居木业家具板块第五</t>
+  </si>
+  <si>
+    <t>美克家居本周沪股通持股市值增加4393.47万元，居木业家具板块第四</t>
+  </si>
+  <si>
+    <t>美克家居(600337)融资融券信息(06-11)</t>
+  </si>
+  <si>
+    <t>美克家居：连续3日融资净偿还累计496.68万元（06-11）</t>
+  </si>
+  <si>
+    <t>今天和深圳那边的资深证券朋友聊了下，结论就三个字：不看好！</t>
+  </si>
+  <si>
+    <t>通告：我们已经正大光明的在4.29至4.33元买进了36000手美克家居股份。</t>
+  </si>
+  <si>
+    <t>通告：我们从今晚（2021年6月11日）开始就将以美克家居在美国德州的公司作为宣</t>
+  </si>
+  <si>
+    <t>证券公司提示：今天美克家居开股东大会，开启网络投票，在哪儿投，有没有人在投呀？</t>
+  </si>
+  <si>
+    <t>持续买进美克家居1亿美元的额度对于外资机构来说，就是买个小投资项目连大风审会都不</t>
+  </si>
+  <si>
+    <t>美克家居的老庄因为要逃避二季度“10大股东报表”目前持仓微薄，他不敢在6月30日</t>
+  </si>
+  <si>
+    <t>美克家居(600337)融资融券信息(06-10)</t>
+  </si>
+  <si>
+    <t>美克家居：融资净偿还432.93万元，融资余额1.87亿元（06-10）</t>
+  </si>
+  <si>
+    <t>2021年6月11日沪深股市交易提示</t>
+  </si>
+  <si>
+    <t>通告：我们有必要来给大家散户投资者解释“美克市值管理案”。首先：刑事诉讼法及民事</t>
+  </si>
+  <si>
+    <t>美克家居也算是重要的华为概念，主力会不会有一波操作，</t>
+  </si>
+  <si>
+    <t>无风不起浪，坐板凳看戏</t>
+  </si>
+  <si>
+    <t>美克家居，同意点赞</t>
+  </si>
+  <si>
+    <t>美克家居的走势？</t>
+  </si>
+  <si>
+    <t>美克家居(600337)融资融券信息(06-09)</t>
+  </si>
+  <si>
+    <t>美克家居：融资净偿还60.77万元，融资余额1.91亿元（06-09）</t>
+  </si>
+  <si>
+    <t>2021年6月10日沪深股市交易提示</t>
+  </si>
+  <si>
+    <t>云网过几天再买，今天重仓美克家居</t>
+  </si>
+  <si>
+    <t>通告：鉴于美克家居取消了向同属于大股东控股的平行兄弟公司“美克顺捷”提供保证担保</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司关于2021年第六次临时股东大会取消部分议案的公告</t>
+  </si>
+  <si>
+    <t>今天4.35买入美克家居79000股，打个底</t>
+  </si>
+  <si>
+    <t>4.35买点美克家居</t>
+  </si>
+  <si>
+    <t>今天4.35买入7万股美克家居</t>
+  </si>
+  <si>
+    <t>美克家居06月08日获沪股通增持461.78万股</t>
+  </si>
+  <si>
+    <t>美克家居董秘：会全力配合证监会调查“杨震爆料门”已过去10天。美克家居董秘称，事</t>
+  </si>
+  <si>
+    <t>美克家居，今日涨停，4.34价入</t>
+  </si>
+  <si>
+    <t>美克家居(600337)融资融券信息(06-07)</t>
+  </si>
+  <si>
+    <t>美克家居：融资净偿还137.64万元，融资余额1.88亿元（06-07）</t>
+  </si>
+  <si>
+    <t>美克家居为全资子公司美克数创提供担保2.8亿元</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司关于为全资子公司提供担保的公告</t>
+  </si>
+  <si>
+    <t>600337:美克国际家居用品股份有限公司2021年第六次临时股东大会会议资料</t>
+  </si>
+  <si>
+    <t>美克家居陷操纵股价风波 帝欧家居董事被立案调查</t>
+  </si>
+  <si>
+    <t>美克家居怎么风平浪静？股价操纵啊，怎么官方都没有发声？</t>
+  </si>
+  <si>
+    <t>今天转战美克家居和英科医疗关注等待时机买入</t>
+  </si>
+  <si>
+    <t>美克家居持有者都知道，大股东诚信回购股票并及时注销股份数，从17亿多股注销后为1</t>
+  </si>
+  <si>
+    <t>美克家居本周融资净买入2197.03万元，居木业家具板块第三</t>
+  </si>
+  <si>
+    <t>美克家居本周沪股通持股市值增加3501.56万元，居木业家具板块第二</t>
+  </si>
+  <si>
+    <t>美克家居(600337)融资融券信息(06-04)</t>
+  </si>
+  <si>
+    <t>美克家居：融资净偿还252.92万元，融资余额1.89亿元（06-04）</t>
+  </si>
+  <si>
+    <t>有将血雨腥风，法学专家：如杨震举报属实，则“操纵美克家居股价由社保基金买单”的行</t>
+  </si>
+  <si>
+    <t>法学专家：如杨震举报属实，则“操纵美克家居股价由社保基金买单”的行为极其恶劣</t>
+  </si>
+  <si>
+    <t>法学专家：如杨震举报属实，则“操纵美克家居股价由社保基金买单”的行为极其恶劣中国</t>
+  </si>
+  <si>
+    <t>美克家居卷入操纵股价风波市值蒸发超14亿 存贷双高曾引质疑</t>
+  </si>
+  <si>
+    <t>一季度营利实现增长 但美克家居还有这些财务风险</t>
+  </si>
+  <si>
+    <t>下周沪深上市公司重大事项公告最新快递(6月4日)</t>
+  </si>
+  <si>
+    <t>美克家居竟然有氢能源和燃料电池概念</t>
+  </si>
+  <si>
+    <t>调查结果没有半年一年是出不了结果的，就看看最近6.18美克家居销量如何了</t>
+  </si>
+  <si>
+    <t>刚看了下淘宝下单美克家居的不少，顶！</t>
+  </si>
+  <si>
+    <t>看看联络互动再看看美克家居这居然也能叫操纵股票？？</t>
+  </si>
+  <si>
+    <t>2021年5月15日上午，报案人杨震及委托的律师徐侃在与许亚飞及一位黄姓合伙人交</t>
+  </si>
+  <si>
+    <t>什么情况？又见大牛股闪崩跌停 此前3个月股价翻近4倍</t>
+  </si>
+  <si>
+    <t>美克家居(600337)融资融券信息(06-03)</t>
+  </si>
+  <si>
+    <t>美克家居：连续3日融资净买入累计2459.83万元（06-03）</t>
+  </si>
+  <si>
+    <t>美克家居06月03日获沪股通增持436.66万股</t>
+  </si>
+  <si>
+    <t>对美克家居最好的支持就是默默逢低买入，然后闭嘴静待股价上涨。</t>
+  </si>
+  <si>
+    <t>杨震“举报门”新进展：许亚飞方亮出配资合同反驳指控</t>
+  </si>
+  <si>
+    <t>明天我能进入美克家居吗？请大神指点迷津</t>
+  </si>
+  <si>
+    <t>美克家居股价连续3日创近1年新低</t>
+  </si>
+  <si>
+    <t>美克家居：融资净买入382.17万元，融资余额1.89亿元（06-02）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月24日融资净买入153.24万元；融资余额1.88亿元，较前一日增加0.82%。融资方面，当日融资买入444.57万元，融资偿还291.33万元，融资净买入153.24万元。融券方面，融券</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月23日融资净买入336.91万元；融资余额1.87亿元，较前一日增加1.84%。融资方面，当日融资买入727.9万元，融资偿还390.99万元，融资净买入336.91万元。融券方面，融券卖出</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-24                              美克国际家居用品股份有限公司 2021 年第七次临时股东大会会议资料公司代码：600337                      公司简称：美克家居    美克国际家居用品股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月22日融资净偿还94.48万元；融资余额1.83亿元，较前一日下降0.51%融资方面，当日融资买入151.86万元，融资偿还246.33万元，融资净偿还94.48万元。融券方面，融券卖出0股</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月21日融资净偿还67.03万元；融资余额1.84亿元，较前一日下降0.36%融资方面，当日融资买入563.8万元，融资偿还630.83万元，融资净偿还67.03万元。融券方面，融券卖出0股</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-22证券代码：600337        证券简称：美克家居        编号：临 2021-067      美克国际家居用品股份有限公司关于 2020 年年度报告信息披露监管工作函的回复公告    本公司董事会及全体董事保证本公告内容不存在</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-22证券代码：600337        证券简称：美克家居        编号：临 2021-066    美克国际家居用品股份有限公司担保公告    本公司董事会及全体董事保证本公告内容不存在任何虚假记载、误导性陈述或者重大遗漏，并对其内容的真实性</t>
+  </si>
+  <si>
+    <t>百强发布，居然之家、尚品宅配等上榜　　6月16日，中国连锁经营协会发布“2020中国特许连锁百强”。居然之家、尚品宅配、东易日盛、业之峰4家家装企业上榜，家居用品行业有特百惠、美克家居2家企业上榜。　　集美家居大红门商场家具、建材全品类商户恢复营业　　6月17日，集美家居发布通知</t>
+  </si>
+  <si>
+    <t>美克家居本周(2021/06/15-2021/06/18)累计跌幅达1.86%，截至6月18日最新股价报收4.23元。从增量上来看，6月15日至6月18日融资买入交易规模1091.56万元，融资偿还规模1325.53万元，期内融资净偿还233.97万元。从存量上来看，截止6月</t>
+  </si>
+  <si>
+    <t>美克家居本周(2021/06/14-2021/06/20)累计跌幅达1.86%，截至当前最新股价报收4.23元。从增量上来看，6月15日至6月18日间美克家居获沪股通增持426.49万股，持股市值增加1793.83万元。从存量上来看，截至当前最新持股量5634.62万股，最新</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月18日融资净买入189.73万元；融资余额1.85亿元，较前一日增加1.04%融资方面，当日融资买入389.72万元，融资偿还200万元，融资净买入189.73万元。融券方面，融券卖出0股</t>
+  </si>
+  <si>
+    <t>通告：由于近期较多的国外投资者开始买进了美克家居股票，因此，国内股民在美克家居股吧发帖所使用的文字、内容要文明，杜绝含有脏话，多头空头杜绝相互谩骂，尽量选择通俗易懂的语句及文字，不要使用地区方言（以免尊敬的国外投资者使用百度不能正确翻译）、网络用语（比如：稳的一批、慌的一批、、c位出道、笑出猪叫声）、还有抹黑美克的比如：美克牌缝纫机、美克牌织布机、美克式回购……等，大家要塑造好一个强大国家的良好公民形象。...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月17日融资净偿还137.64万元；融资余额1.83亿元，较前一日下降0.75%。融资方面，当日融资买入287.07万元，融资偿还424.71万元，融资净偿还137.64万元，连续6日净偿还</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月16日融资净偿还107.41万元；融资余额1.84亿元，较前一日下降0.58%。融资方面，当日融资买入158.41万元，融资偿还265.82万元，融资净偿还107.41万元，连续5日净偿还</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：贝壳财经 　　6月16日，中国连锁经营协会发布“2020中国特许连锁百强”。其中，家装行业有居然之家、尚品宅配、东易日盛、业之峰4家企业上榜，家居用品行业有特百惠、美克家居2家企业上榜。　　据中国连锁经营协会介绍，参与“2020年中国特许连锁百强调查”的企业包括餐饮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$海思科(SZ002653)$$美克家居(SH600337)$ 止损卖出  </t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-15 证券代码：600337        证券简称：美克家居        编号：临 2021-063        美克国际家居用品股份有限公司    2017 年员工持股计划持有人会议决议公告    本公司董事会及全体董事保证本公告内容不存在</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-15证券代码：600337      证券简称：美克家居      公告编号：临 2021-065        美克国际家居用品股份有限公司  关于召开 2021 年第七次临时股东大会的通知  本公司董事会及全体董事保证本公告内容不存在任何虚假记载</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-15证券代码：600337        证券简称：美克家居    公告编号：临 2021-062        美克国际家居用品股份有限公司      2021 年第六次临时股东大会决议公告    本公司董事会及全体董事保证本公告内容不存在任何虚假</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-15 证券代码：600337        证券简称：美克家居        编号：临 2021-064        美克国际家居用品股份有限公司      第八届董事会第四次会议决议公告    本公司董事会及全体董事保证本公告内容不存在任何虚假记载</t>
+  </si>
+  <si>
+    <t>美克家居本周(2021/06/07-2021/06/11)累计涨幅达0.94%，截至6月11日最新股价报收4.31元。从增量上来看，6月7日至6月11日融资买入交易规模2746.03万元，融资偿还规模2922.92万元，期内融资净偿还176.89万元。从存量上来看，截止6月14</t>
+  </si>
+  <si>
+    <t>美克家居本周(2021/06/06-2021/06/14)累计涨幅达0.94%，截至当前最新股价报收4.31元。从增量上来看，6月7日至6月11日间美克家居获沪股通增持1015.84万股，持股市值增加4393.47万元。从存量上来看，截至当前最新持股量5208.13万股，最新</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年6月11日融资融券信息显示，美克家居融资余额187,115,862元，融券余额98,268元，融资买入额3,707,212元，融资偿还额3,737,024元，融资净买额-29,812元，融券余量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月11日融资净偿还2.98万元；融资余额1.87亿元，较前一日下降0.02%。融资方面，当日融资买入370.72万元，融资偿还373.7万元，融资净偿还2.98万元，连续3日净偿还累计</t>
+  </si>
+  <si>
+    <t>这朋友关系不错，是以前一个客户，研究核心包括这个版块，曾经也推荐过几个非常好的买入时机股，大概结论就是，目前短期和中期都不看好定制家居至成品家居，这块有点被盯上了，从中源家居到美克家居，索菲亚这段大跌或多或少与机构主力不看好这个版块有关系，从业来说，定制家居的风口基本已经快要</t>
+  </si>
+  <si>
+    <t>通告：我们从今晚（2021年6月11日）开始就将以美克家居在美国德州的公司作为宣传平台，在美国各大金融网站对美国投资者进行一对一宣传美克家居的投资价值。动员美国投资者通过香港渣打银行、香港汇丰银行作为资金通道（沪股通）买进美克家居股份，我们将再次创造散户踏平主力的神话，只不过这次是国外散户投资者呦！国内的散户和小老庄给你们上演一出散户拉20个涨停板的大戏！...</t>
+  </si>
+  <si>
+    <t>持续买进美克家居1亿美元的额度对于外资机构来说，就是买个小投资项目连大风审会都不用上的。我就不信还有哪个家伙再来举报外资了？？外资大举买进美克家居，来举报丫？？………呃…………</t>
+  </si>
+  <si>
+    <t>美克家居的老庄因为要逃避二季度“10大股东报表”目前持仓微薄，他不敢在6月30日前吃回仓位，这是甩掉老庄的好机会！沪股通快跟我们买进吧！</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年6月10日融资融券信息显示，美克家居融资余额187,145,674元，融券余额72,311元，融资买入额5,367,408元，融资偿还额9,696,704元，融资净买额-4,329,296元，融券</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月10日融资净偿还432.93万元；融资余额1.87亿元，较前一日下降2.26%。融资方面，当日融资买入536.74万元，融资偿还969.67万元，融资净偿还432.93万元。融券方面，融券</t>
+  </si>
+  <si>
+    <t>大会
+ 　　(002877) 智能自控：召开2021年度第2次临时股东大会
+ 　　(300843) 胜蓝股份：召开2021年度第2次临时股东大会
+ 　　(600337) 美克家居：召开2021年度第6次临时股东大会
+ 　　(600737) 中粮糖业：召开2021年度第2次临时股东大会...</t>
+  </si>
+  <si>
+    <t>不予立案，杨震都不会被追究任何法律责任。这就是说，这些所有的媒体消息大举报道这个“美克、社保、综合涉嫌案”本身就是助长了美克原庄家（该庄家已经盘踞美克家居近20年了）恶意打压美克股价伤害中小股民利益的恶劣行为。这次“美克家居”事件为什么杨姓人会拿美克来作为靶子？那是因为“中源家居</t>
+  </si>
+  <si>
+    <t>无风不起浪，大家看看上次躺枪的美克家居，举报人自己都澄清了，还是跌到爹妈都不认了</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年6月9日融资融券信息显示，美克家居融资余额191,474,970元，融券余额72,812元，融资买入额2,570,131元，融资偿还额3,177,846元，融资净买额-607,715元，融券余量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月9日融资净偿还60.77万元；融资余额1.91亿元，较前一日下降0.32%。融资方面，当日融资买入257.01万元，融资偿还317.78万元，融资净偿还60.77万元。融券方面，融券卖出0股</t>
+  </si>
+  <si>
+    <t>公告　　(600246) 万通发展：关于公司股东部分股份解质押及质押的公告　　(600337) 美克家居：美克国际家居用品股份有限公司关于2021年第六次临时股东大会取消部分议案的公告　　(600048) 保利地产：保利发展控股集团股份有限公司第六届监事会第十次会议决议公告</t>
+  </si>
+  <si>
+    <t>通告：鉴于美克家居取消了向同属于大股东控股的平行兄弟公司“美克顺捷”提供保证担保，我们重新将美克家居的操作风险适当性调低一个F，同时对公司控股股东的银行授信用途的真实性保持持续性关注。同时，鉴于我们预计美克家居二季度收入及利润较2019年同期继续保持预期增长，故至下一个交易日开始，我们会在二级市场上对美克家居股份进行持续性的（不代表不间断的）购买交易操作。（投资者据此操作，风险自担）...</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-10证券代码：600337        证券简称：美克家居      公告编号：临 2021-061 美克国际家居用品股份有限公司关于 2021 年第六次      临时股东大会取消部分议案的公告  本公司董事会及全体董事保证本公告内容不存在任何虚假</t>
+  </si>
+  <si>
+    <t>06月08日，美克家居获沪股通增持461.78万股，已连续5日获沪股通增持，共计1325.73万股，最新持股量为4755.34万股，占公司A股总股本的2.92%。近五日持股量数据持股量及股价变动图注：文中持股数量经过前复权处理，可能存在与港交所披露不一致的情形。免责声明：本文</t>
+  </si>
+  <si>
+    <t>美克家居董秘：会全力配合证监会调查“杨震爆料门”已过去10天。美克家居董秘称，事件出来后，按照交易所的监管要求，我们该讲都讲了，该对外披露的，都按法披露了。目前，证监会对此事已立案。我们的意见是：全力配合。证监会总会给股民一个快速的回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年6月7日融资融券信息显示，美克家居融资余额187,508,430元，融券余额81,748元，融资买入额3,223,059元，融资偿还额4,599,413元，融资净买额-1,376,354元，融券</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月7日融资净偿还137.64万元；融资余额1.88亿元，较前一日下降0.62%。融资方面，当日融资买入322.31万元，融资偿还459.94万元，融资净偿还137.64万元。融券方面，融券卖出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：财经网  　　6月7日，美克国际家居用品股份有限公司(简称：美克家居)发布关于为全资子公司提供担保的公告。
+ 　　公告显示，美克家居为全资子公司美克数创(赣州)家居智造有限公司(简称美克数创)2.8亿元人民币固定资产投资贷款提供担保，累计为其提供担保余额为2.8亿元</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-08证券代码：600337        证券简称：美克家居        编号：临 2021-060        美克国际家居用品股份有限公司      关于为全资子公司提供担保的公告    本公司董事会及全体董事保证本公告内容不存在任何虚假记载</t>
+  </si>
+  <si>
+    <t>公告日期：2021-06-08公司代码：600337                      公司简称：美克家居    美克国际家居用品股份有限公司  Markor International Home Furnishings Co., Ltd.  2021 年第六次临时</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：贝壳财经 　　这一周，家居企业动态不断。2021米兰国际家具展采用新标识，取消企业独立展馆；福建金森收问询函，扣非后净利润连续2年为负；美克家居陷操纵股价风波，回应称“从未参与，纯属主观臆造”；涉嫌信披违法违规，帝欧家居2名董事被证监会立案调查；红星美凯龙拟出售旗下7家</t>
+  </si>
+  <si>
+    <t>今天转战 美克家居 和英科医疗 关注 等待时机买入</t>
+  </si>
+  <si>
+    <t>美克家居持有者都知道，大股东诚信回购股票并及时注销股份数，从17亿多股注销后为16亿多股，还用去市值管理吗？心中有数的股民会知道怎样做的。[憨笑]</t>
+  </si>
+  <si>
+    <t>美克家居本周(2021/05/31-2021/06/04)累计跌幅达9.15%，截至6月4日最新股价报收4.27元。从增量上来看，5月31日至6月4日融资买入交易规模8700.6万元，融资偿还规模6503.57万元，期内融资净买入2197.03万元。从存量上来看，截止6月6日</t>
+  </si>
+  <si>
+    <t>美克家居本周(2021/05/30-2021/06/06)累计跌幅达9.15%，截至当前最新股价报收4.27元。从增量上来看，5月31日至6月4日间美克家居获沪股通增持811.02万股，持股市值增加3501.56万元。从存量上来看，截至当前最新持股量4192.29万股，最新持股</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年6月4日融资融券信息显示，美克家居融资余额188,671,284元，融券余额102,907元，融资买入额6,272,096元，融资偿还额8,801,263元，融资净买额-2,529,167元，融券</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月4日融资净偿还252.92万元；融资余额1.89亿元，较前一日下降1.32%。融资方面，当日融资买入627.21万元，融资偿还880.13万元，融资净偿还252.92万元。融券方面，融券卖出</t>
+  </si>
+  <si>
+    <t>有将血雨腥风，法学专家：如杨震举报属实，则“操纵美克家居股价由社保基金买单”的行为极其恶劣。</t>
+  </si>
+  <si>
+    <t>法学专家：如杨震举报属实，则“操纵美克家居股价由社保基金买单”的行为极其恶劣中国经济周刊3小时前 《中国经济周刊》官方账号《中国经济周刊》记者 孙庭阳 马铭悦 | 北京报道近日，杨震博士实名举报许亚飞团队涉嫌操纵“美克家居”股价及对社保基金相关人员行贿事件持续发酵。6月4日</t>
+  </si>
+  <si>
+    <t>法学专家：如杨震举报属实，则“操纵美克家居股价由社保基金买单”的行为极其恶劣中国经济周刊1小时前《中国经济周刊》记者 孙庭阳 马铭悦 | 北京报道近日，杨震博士实名举报许亚飞团队涉嫌操纵“美克家居”股价及对社保基金相关人员行贿事件持续发酵。6月4日，《中国经济周刊》记者采访了</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：贝壳财经  　　继中源家居卷入操纵股价风波后，美克家居也深陷其中。近日，爆料人杨震实名举报许亚飞及其团队涉嫌操纵美克家居股价，许亚飞方面则称杨震“贼喊捉贼、栽赃陷害”，双方陷入口水战。　　美克家居6月1日回应新京报记者称，网上文章内容纯属主观臆造，美克家居从未参与过股票</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：第一财经 　　位于风口浪尖的美克家居日前公布一季报显示，期内营收同比增长168%，全面扭转了去年亏损局面。这一业绩增速在家居行业处于怎样的水平？细究这份财报，美克家居还有哪些财务风险？来看本期解财报。（文章来源：第一财经） [点击查看原文] </t>
+  </si>
+  <si>
+    <t>临时股东大会
+ 　　(601366) 利群股份：召开2020年度股东大会
+ 　　(601949) 中国出版：召开2020年度股东大会
+ 　　(600337) 美克家居：召开2021年度第6次临时股东大会
+ 　　(688030) 山石网科：召开2021年度第2次临时股东大会</t>
+  </si>
+  <si>
+    <t>[大笑]</t>
+  </si>
+  <si>
+    <t>看看 联络互动 再看看美克家居 这居然也能叫操纵股票？？</t>
+  </si>
+  <si>
+    <t>2021年5 月15 日上午，报案人杨震及委托的律师徐侃在与许亚飞及一位黄姓合伙人交涉中，许黄二人“自曝”称，他们团队多年来利用技术、资金、信息等优势操纵多支股票。并于近期收取了上市公司“美克家居”保证金，上市公司为其全程提供内幕信息，许亚飞团伙打好了10 亿元左右的底仓，控盘</t>
+  </si>
+  <si>
+    <t>，经营发展面临前所未有的困难和挑战，尤其是主营业务中的广告业务和旅游业务受到很大影响，经营情况出现下滑，形成亏损。公司积极应对新冠疫情的突然袭击，在做好疫情防控的同时，有序恢复生产经营秩序，开源节流，力争将疫情造成的影响降到最低。　　5月28日，原本股价相对平稳的美克家居股价也突现...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居(600337)2021年6月3日融资融券信息显示，美克家居融资余额191,200,451元，融券余额629,520元，融资买入额12,038,561元，融资偿还额9,662,618元，融资净买额2,375,943元，融券</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月3日融资净买入237.59万元；融资余额1.91亿元，较前一日增加1.26%。融资方面，当日融资买入1203.86万元，融资偿还966.26万元，融资净买入237.59万元，连续3日净买入</t>
+  </si>
+  <si>
+    <t>06月03日，美克家居获沪股通增持436.66万股，最新持股量为4020.27万股，占公司A股总股本的2.47%。近五日持股量数据持股量及股价变动图注：文中持股数量经过前复权处理，可能存在与港交所披露不一致的情形。免责声明：本文基于大数据生产，仅供参考，不构成任何投资建议，据此</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：第一财经 　　杨震“举报门”又有新进展。　　5月31日，一则题为《杨震博士实名举报许亚飞团伙涉嫌“美克家居”操纵事件及对社保基金行贿门新闻发布会通稿》的文件在网上流传。随后，第一财经采访了杨震并进行相关报道。(详见《又见“举报门”！杨震最新回应：关于团伙涉嫌操纵美克家居</t>
+  </si>
+  <si>
+    <t>2021年6月3日行情数据显示，美克家居股价盘中最低触及4.24元，创2020年5月27日以来新低。近一年来，美克家居累计跌幅达10.42%。证券简称最低价（元）收盘价（元）涨跌幅（%）成交额（元）换手率（%）美克家居4.244.300.479959.65万1.42数据来源</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 来源：东方财富Choice数据 作者：财智星 美克家居融资融券信息显示，2021年6月2日融资净买入382.17万元；融资余额1.89亿元，较前一日增加2.07%。融资方面，当日融资买入1506.86万元，融资偿还1124.69万元，融资净买入382.17万元。融券方面，融券</t>
+  </si>
+  <si>
+    <t>2021-06-25 13:46:57</t>
+  </si>
+  <si>
+    <t>2021-06-25 07:37:07</t>
+  </si>
+  <si>
+    <t>2021-06-24 07:36:46</t>
+  </si>
+  <si>
+    <t>2021-06-23 16:06:36</t>
+  </si>
+  <si>
+    <t>2021-06-23 07:36:46</t>
+  </si>
+  <si>
+    <t>2021-06-22 07:39:06</t>
+  </si>
+  <si>
+    <t>2021-06-21 18:10:47</t>
+  </si>
+  <si>
+    <t>2021-06-21 12:22:57</t>
+  </si>
+  <si>
+    <t>2021-06-20 15:07:51</t>
+  </si>
+  <si>
+    <t>2021-06-20 14:07:02</t>
+  </si>
+  <si>
+    <t>2021-06-19 07:36:53</t>
+  </si>
+  <si>
+    <t>2021-06-18 22:27:00</t>
+  </si>
+  <si>
+    <t>2021-06-18 07:44:10</t>
+  </si>
+  <si>
+    <t>2021-06-17 07:40:14</t>
+  </si>
+  <si>
+    <t>2021-06-16 18:25:55</t>
+  </si>
+  <si>
+    <t>2021-06-16 16:58:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:59:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:36:59</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:36:57</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:36:55</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:05:17</t>
+  </si>
+  <si>
+    <t>2021-06-14 14:05:37</t>
+  </si>
+  <si>
+    <t>2021-06-12 07:44:35</t>
+  </si>
+  <si>
+    <t>2021-06-12 07:38:17</t>
+  </si>
+  <si>
+    <t>2021-06-11 23:14:31</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:02:48</t>
+  </si>
+  <si>
+    <t>2021-06-11 12:35:11</t>
+  </si>
+  <si>
+    <t>2021-06-11 11:45:24</t>
+  </si>
+  <si>
+    <t>2021-06-11 11:43:21</t>
+  </si>
+  <si>
+    <t>2021-06-11 09:45:24</t>
+  </si>
+  <si>
+    <t>2021-06-11 07:46:10</t>
+  </si>
+  <si>
+    <t>2021-06-11 07:37:24</t>
+  </si>
+  <si>
+    <t>2021-06-11 05:39:12</t>
+  </si>
+  <si>
+    <t>2021-06-10 20:23:06</t>
+  </si>
+  <si>
+    <t>2021-06-10 20:15:28</t>
+  </si>
+  <si>
+    <t>2021-06-10 17:14:32</t>
+  </si>
+  <si>
+    <t>2021-06-10 17:01:43</t>
+  </si>
+  <si>
+    <t>2021-06-10 13:30:20</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:57:08</t>
+  </si>
+  <si>
+    <t>2021-06-10 07:54:49</t>
+  </si>
+  <si>
+    <t>2021-06-10 07:36:14</t>
+  </si>
+  <si>
+    <t>2021-06-10 07:04:19</t>
+  </si>
+  <si>
+    <t>2021-06-09 19:16:22</t>
+  </si>
+  <si>
+    <t>2021-06-09 16:29:32</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:48:48</t>
+  </si>
+  <si>
+    <t>2021-06-09 11:51:51</t>
+  </si>
+  <si>
+    <t>2021-06-09 11:28:36</t>
+  </si>
+  <si>
+    <t>2021-06-09 11:16:22</t>
+  </si>
+  <si>
+    <t>2021-06-09 07:36:58</t>
+  </si>
+  <si>
+    <t>2021-06-08 18:57:14</t>
+  </si>
+  <si>
+    <t>2021-06-08 13:45:47</t>
+  </si>
+  <si>
+    <t>2021-06-08 07:53:26</t>
+  </si>
+  <si>
+    <t>2021-06-08 07:37:01</t>
+  </si>
+  <si>
+    <t>2021-06-07 17:25:35</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:51:47</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:20:05</t>
+  </si>
+  <si>
+    <t>2021-06-07 13:36:51</t>
+  </si>
+  <si>
+    <t>2021-06-07 12:36:06</t>
+  </si>
+  <si>
+    <t>2021-06-06 21:50:39</t>
+  </si>
+  <si>
+    <t>2021-06-06 15:05:54</t>
+  </si>
+  <si>
+    <t>2021-06-06 14:31:03</t>
+  </si>
+  <si>
+    <t>2021-06-05 07:48:19</t>
+  </si>
+  <si>
+    <t>2021-06-05 07:39:53</t>
+  </si>
+  <si>
+    <t>2021-06-05 00:07:49</t>
+  </si>
+  <si>
+    <t>2021-06-04 23:09:26</t>
+  </si>
+  <si>
+    <t>2021-06-04 22:54:03</t>
+  </si>
+  <si>
+    <t>2021-06-04 21:19:19</t>
+  </si>
+  <si>
+    <t>2021-06-04 20:02:09</t>
+  </si>
+  <si>
+    <t>2021-06-04 16:11:58</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:26:58</t>
+  </si>
+  <si>
+    <t>2021-06-04 12:15:55</t>
+  </si>
+  <si>
+    <t>2021-06-04 11:50:53</t>
+  </si>
+  <si>
+    <t>2021-06-04 11:13:05</t>
+  </si>
+  <si>
+    <t>2021-06-04 10:56:16</t>
+  </si>
+  <si>
+    <t>2021-06-04 09:21:42</t>
+  </si>
+  <si>
+    <t>2021-06-04 08:22:19</t>
+  </si>
+  <si>
+    <t>2021-06-04 07:41:02</t>
+  </si>
+  <si>
+    <t>2021-06-04 07:35:27</t>
+  </si>
+  <si>
+    <t>2021-06-04 07:35:02</t>
+  </si>
+  <si>
+    <t>2021-06-04 06:40:37</t>
+  </si>
+  <si>
+    <t>2021-06-04 05:42:10</t>
+  </si>
+  <si>
+    <t>2021-06-03 18:17:21</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:38:09</t>
+  </si>
+  <si>
+    <t>2021-06-03 07:55:15</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1050608412.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1050311159.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1049767161.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1049616516.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1049215817.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1048696165.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1048587599.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1048587596.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,cjpl,1048475446.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1048105996.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1048098726.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1047962368.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1047884472.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1047255882.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1046731837.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,000785,1046646306.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,002653,1046617008.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045825665.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045665375.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045665377.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045665373.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045665370.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045661584.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045654747.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045443846.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045442793.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,002572,1045415683.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045303394.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045153354.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045137009.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1045136007.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044978442.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044913136.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044911248.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,cjpl,1044900848.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044829001.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044826969.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044782652.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600702,1044779412.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044630296.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,002572,1044526328.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044357304.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044353505.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,cjpl,1044354022.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,002306,1044264516.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044226182.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044214793.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,300367,1044055805.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1044044782.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,002506,1044033222.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043857898.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043769411.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600260,1043631834.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043365481.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043362302.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043251784.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043242653.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043242658.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,hk01528,1043234211.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1043120437.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,zssh000001,1043081654.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042831563.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042790051.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042785516.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042642535.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042641246.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,zsgjndx,1042618289.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,603833,1042610215.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,601939,1042607371.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600720,1042585234.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042588541.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,cjpl,1042520861.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,cjpl,1042502462.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042351047.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042342325.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042312148.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042292895.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600169,1042153590.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,300093,1042138429.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042130897.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042129708.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042129494.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042123517.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042119203.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1042029334.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1041988658.html?from=se</t>
+  </si>
+  <si>
+    <t>http://guba.eastmoney.com/news,600337,1041617625.html?from=se</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,16 +1486,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1666,114 +1504,114 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E3">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E4">
-        <v>1930</v>
+        <v>431</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E5">
-        <v>354</v>
+        <v>751</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E6">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1782,27 +1620,27 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="E7">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1811,68 +1649,68 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8">
+        <v>1325</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8">
-        <v>261</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E9">
-        <v>1573</v>
+        <v>603</v>
       </c>
       <c r="F9">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1880,45 +1718,45 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="E10">
-        <v>1320</v>
+        <v>319</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E11">
-        <v>176</v>
+        <v>732</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1927,27 +1765,27 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E12">
-        <v>258</v>
+        <v>975</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1956,27 +1794,27 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E13">
-        <v>225</v>
+        <v>888</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1985,85 +1823,85 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E14">
-        <v>1184</v>
+        <v>986</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="E15">
-        <v>558</v>
+        <v>708</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E16">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2072,97 +1910,97 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E17">
-        <v>685</v>
+        <v>1650</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E18">
-        <v>349</v>
+        <v>614</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="E19">
-        <v>984</v>
+        <v>603</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2170,16 +2008,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="E20">
-        <v>652</v>
+        <v>319</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2188,27 +2026,27 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="E21">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2220,111 +2058,111 @@
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="E22">
-        <v>2371</v>
+        <v>975</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E23">
-        <v>1604</v>
+        <v>889</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E24">
-        <v>2787</v>
+        <v>986</v>
       </c>
       <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>7</v>
       </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
       <c r="H24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="E25">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2333,114 +2171,114 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E26">
-        <v>2056</v>
+        <v>619</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="E27">
-        <v>993</v>
+        <v>1650</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="E28">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E29">
-        <v>876</v>
+        <v>312</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2449,56 +2287,56 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30">
+        <v>1662</v>
+      </c>
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30">
-        <v>686</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E31">
-        <v>392</v>
+        <v>688</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2507,27 +2345,27 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E32">
-        <v>325</v>
+        <v>646</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2536,27 +2374,27 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E33">
-        <v>395</v>
+        <v>696</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2565,27 +2403,27 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E34">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2594,56 +2432,56 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="E35">
-        <v>997</v>
+        <v>818</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E36">
-        <v>1433</v>
+        <v>628</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2655,268 +2493,268 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E37">
-        <v>934</v>
+        <v>622</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E38">
-        <v>397</v>
+        <v>1892</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E39">
-        <v>404</v>
+        <v>689</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E40">
-        <v>448</v>
+        <v>1347</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E41">
-        <v>602</v>
+        <v>298</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E42">
-        <v>267</v>
+        <v>415</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E43">
-        <v>487</v>
+        <v>610</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E44">
-        <v>853</v>
+        <v>568</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E45">
-        <v>987</v>
+        <v>460</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2924,219 +2762,219 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E46">
-        <v>564</v>
+        <v>3355</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E47">
-        <v>709</v>
+        <v>2028</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E48">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="E49">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E50">
-        <v>553</v>
+        <v>190</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E51">
-        <v>187</v>
+        <v>478</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E52">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E53">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3145,27 +2983,27 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="E54">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3174,27 +3012,27 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E55">
-        <v>606</v>
+        <v>7501</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3203,143 +3041,143 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="E56">
-        <v>593</v>
+        <v>738</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E57">
-        <v>1274</v>
+        <v>1602</v>
       </c>
       <c r="F57">
         <v>4</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H57">
         <v>4</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E58">
-        <v>729</v>
+        <v>1867</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="E59">
-        <v>640</v>
+        <v>557</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E60">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3348,172 +3186,172 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="E61">
-        <v>632</v>
+        <v>344</v>
       </c>
       <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>2</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E62">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E63">
-        <v>590</v>
+        <v>1125</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="E64">
-        <v>773</v>
+        <v>402</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="E65">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="E66">
-        <v>1101</v>
+        <v>424</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3522,317 +3360,317 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="E67">
-        <v>560</v>
+        <v>1337</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="E68">
-        <v>838</v>
+        <v>751</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E69">
-        <v>1386</v>
+        <v>847</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="E70">
-        <v>1780</v>
+        <v>1044</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="E71">
-        <v>766</v>
+        <v>372</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="E72">
-        <v>777</v>
+        <v>304</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E73">
-        <v>454</v>
+        <v>990</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E74">
-        <v>495</v>
+        <v>760</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E75">
-        <v>424</v>
+        <v>1101</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E76">
-        <v>457</v>
+        <v>598</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E77">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3841,27 +3679,27 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="E78">
-        <v>471</v>
+        <v>313</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3870,230 +3708,230 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E79">
-        <v>2347</v>
+        <v>401</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E80">
-        <v>4436</v>
+        <v>423</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="E81">
-        <v>1795</v>
+        <v>687</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="E82">
-        <v>1209</v>
+        <v>1698</v>
       </c>
       <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
+      </c>
+      <c r="H82">
         <v>7</v>
       </c>
-      <c r="G82">
-        <v>16</v>
-      </c>
-      <c r="H82">
-        <v>4</v>
-      </c>
       <c r="I82" s="2" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E83">
-        <v>2174</v>
+        <v>477</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E84">
-        <v>515</v>
+        <v>54026</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E85">
-        <v>405</v>
+        <v>515</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="E86">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4102,56 +3940,56 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="E87">
-        <v>308</v>
+        <v>516</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="E88">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4160,85 +3998,85 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="E89">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="E90">
-        <v>397</v>
+        <v>46511</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="E91">
-        <v>433</v>
+        <v>549</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4247,300 +4085,213 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="E92">
-        <v>705</v>
+        <v>519</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="E93">
-        <v>3602</v>
+        <v>605</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E94">
-        <v>929</v>
+        <v>405</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
         <v>7</v>
       </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
       <c r="I94" s="2" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E95">
-        <v>974</v>
+        <v>12000</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="E96">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="E97">
-        <v>1506</v>
+        <v>437</v>
       </c>
       <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>2</v>
       </c>
-      <c r="G97">
-        <v>4</v>
-      </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
       <c r="I97" s="2" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="E98">
-        <v>449</v>
+        <v>629</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" t="s">
-        <v>303</v>
-      </c>
-      <c r="E99">
-        <v>607</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" t="s">
-        <v>304</v>
-      </c>
-      <c r="E100">
-        <v>657</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" t="s">
-        <v>305</v>
-      </c>
-      <c r="E101">
-        <v>566</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>5</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4642,9 +4393,6 @@
     <hyperlink ref="I96" r:id="rId95"/>
     <hyperlink ref="I97" r:id="rId96"/>
     <hyperlink ref="I98" r:id="rId97"/>
-    <hyperlink ref="I99" r:id="rId98"/>
-    <hyperlink ref="I100" r:id="rId99"/>
-    <hyperlink ref="I101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
